--- a/tests/files/xlsx_csv/exp.xlsx
+++ b/tests/files/xlsx_csv/exp.xlsx
@@ -1,36 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28330"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Troldal/OneDrive/Projects/Development Projects/OpenXL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prog1\Downloads\qt-ts-csv\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>AddNewForm</t>
+  </si>
+  <si>
+    <t>Cottura Manuale</t>
+  </si>
+  <si>
+    <t>Manual Cooking</t>
+  </si>
+  <si>
+    <t>../../QML/OggettiEditDash/AddNewForm.qml - 21</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>en_GB</t>
+  </si>
+  <si>
+    <t>Multi-ActO</t>
+  </si>
+  <si>
+    <t>Cotture Automatiche</t>
+  </si>
+  <si>
+    <t>../../QML/OggettiEditDash/AddNewForm.qml - 22</t>
+  </si>
+  <si>
+    <t>Cotture Multi-Fase</t>
+  </si>
+  <si>
+    <t>Multi-phase cooking</t>
+  </si>
+  <si>
+    <t>AggiornamenroRun</t>
+  </si>
+  <si>
+    <t>Pacchetto di aggiornamento non presente!!</t>
+  </si>
+  <si>
+    <t>SW Update not found!!</t>
+  </si>
+  <si>
+    <t>../../../Aggiornamento/aggiornamenrorun.cpp - 134</t>
+  </si>
+  <si>
+    <t>../../../Aggiornamento/aggiornamenrorun.cpp - 145</t>
+  </si>
+  <si>
+    <t>AudioSettings</t>
+  </si>
+  <si>
+    <t>Impostazioni Audio</t>
+  </si>
+  <si>
+    <t>../../QML/OggettiSettings/AudioSettings.qml - 40</t>
+  </si>
+  <si>
+    <t>Volume audio</t>
+  </si>
+  <si>
+    <t>Audio volume</t>
+  </si>
+  <si>
+    <t>../../QML/OggettiSettings/AudioSettings.qml - 73</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>../../QML/OggettiSettings/AudioSettings.qml - 81</t>
+  </si>
+  <si>
+    <t>../../QML/OggettiSettings/AudioSettings.qml - 151</t>
+  </si>
+  <si>
+    <t>Imposta suonerie</t>
+  </si>
+  <si>
+    <t>../../QML/OggettiSettings/AudioSettings.qml - 207</t>
+  </si>
+  <si>
+    <t>AutoCookCategoryNavigator</t>
+  </si>
+  <si>
+    <t>Visualizza solo programmi utente</t>
+  </si>
+  <si>
+    <t>Display user programs only</t>
+  </si>
+  <si>
+    <t>../../QML/NewGraphic_AutoCook/AutoCookCategoryNavigator.qml - 73</t>
+  </si>
+  <si>
+    <t>AutoCookRecipeNavigator</t>
+  </si>
+  <si>
+    <t>../../QML/NewGraphic_AutoCook/AutoCookRecipeNavigator.qml - 61</t>
+  </si>
+  <si>
+    <t>AutoCookRecipeSettings</t>
+  </si>
+  <si>
+    <t>Aggiungi a preferiti</t>
+  </si>
+  <si>
+    <t>../../QML/NewGraphic_AutoCook/AutoCookRecipeSettings.qml - 39</t>
+  </si>
+  <si>
+    <t>Aggiungi ad elenco impegni</t>
+  </si>
+  <si>
+    <t>Add to Scheduler</t>
+  </si>
+  <si>
+    <t>../../QML/NewGraphic_AutoCook/AutoCookRecipeSettings.qml - 44</t>
+  </si>
+  <si>
+    <t>Accessori raccomandati</t>
+  </si>
+  <si>
+    <t>Recommended accessory</t>
+  </si>
+  <si>
+    <t>../../QML/NewGraphic_AutoCook/AutoCookRecipeSettings.qml - 52</t>
+  </si>
+  <si>
+    <t>Salva</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>../../QML/NewGraphic_AutoCook/AutoCookRecipeSettings.qml - 58</t>
+  </si>
+  <si>
+    <t>TaskDetailsPage</t>
+  </si>
+  <si>
+    <t>Abilitare?</t>
+  </si>
+  <si>
+    <t>Enable?</t>
+  </si>
+  <si>
+    <t>../../QML/NewGraphic_Scheduler/TaskDetailsPage.qml - 185</t>
+  </si>
+  <si>
+    <t>LUN</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>../../QML/NewGraphic_Scheduler/TaskDetailsPage.qml - 217</t>
+  </si>
+  <si>
+    <t>serialequadro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write error: </t>
+  </si>
+  <si>
+    <t>../../src/serialequadro.cpp - 1207</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,20 +246,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -90,7 +278,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -102,7 +290,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -119,9 +307,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -154,9 +342,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -336,12 +524,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>